--- a/Shiny App/Data/Basic Allocations.xlsx
+++ b/Shiny App/Data/Basic Allocations.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1218,10 +1218,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75">
-      <c r="B74" s="3">
-        <f>SUM(B2:B73)</f>
-        <v>628729878.32280004</v>
-      </c>
+      <c r="B74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
